--- a/data/trans_bre/P37-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.41161788335846</v>
+        <v>-3.538011447522746</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.942336077209514</v>
+        <v>-5.679939639746866</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.405982803248321</v>
+        <v>-4.509281798758425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.351179068529825</v>
+        <v>3.746344606020569</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7023643152100498</v>
+        <v>-0.6983119551499378</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7334598561937795</v>
+        <v>-0.7273446966750399</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6499055623207186</v>
+        <v>-0.6373146468639923</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3240462969183153</v>
+        <v>0.4443468173416744</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.171032249768435</v>
+        <v>1.107777680520369</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.05469451754956449</v>
+        <v>0.07174009206865671</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.68434954842591</v>
+        <v>1.378544234619506</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.54571070202239</v>
+        <v>14.99324971802883</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5161160876889787</v>
+        <v>0.5851912627027287</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04759662362874116</v>
+        <v>0.02770975914268858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4672209125953569</v>
+        <v>0.4110558410547887</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9.590610253902151</v>
+        <v>10.81212299369208</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.1559014190341955</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.101929007225952</v>
+        <v>5.101929007225954</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1707960762877637</v>
@@ -749,7 +749,7 @@
         <v>0.03853175950935182</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4581894451622609</v>
+        <v>0.4581894451622611</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.932102677715072</v>
+        <v>-3.070132322194736</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.285131309800519</v>
+        <v>-3.298045143932778</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.10270325946816</v>
+        <v>-2.242514559676476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04724988863670102</v>
+        <v>-0.4233126308439509</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5241206283346893</v>
+        <v>-0.5546633248911884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4520925240686305</v>
+        <v>-0.4502329790995318</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4226140359785249</v>
+        <v>-0.4337317079241601</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.003801526926731469</v>
+        <v>-0.03724870125695944</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.414454436047646</v>
+        <v>1.623892978548066</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.16858551105157</v>
+        <v>2.344739958146013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.56085702139619</v>
+        <v>2.243749312399411</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.20435826501763</v>
+        <v>9.819689836715801</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4285952364608972</v>
+        <v>0.4547602146056307</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4684656058056552</v>
+        <v>0.514874866453631</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8428474234108156</v>
+        <v>0.806921206130315</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.276595209532855</v>
+        <v>1.178134553516416</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.651621770820749</v>
+        <v>-1.629899261902831</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.853841477105877</v>
+        <v>-2.818715119418684</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.495026611808979</v>
+        <v>1.336625360918519</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.224415015660837</v>
+        <v>-3.265415280994851</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2630343372148441</v>
+        <v>-0.2492986144294776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.328310963860093</v>
+        <v>-0.3264568727811244</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3638119364884871</v>
+        <v>0.3303202148798526</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1805741578980508</v>
+        <v>-0.1848009596027207</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.708606479631925</v>
+        <v>3.930188504765876</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.700130052965023</v>
+        <v>2.882619019088821</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.323209814015502</v>
+        <v>6.295929236802357</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.829470729955006</v>
+        <v>4.888524574443484</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8142896003676127</v>
+        <v>0.979646308318095</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4481147561227256</v>
+        <v>0.4949106417705662</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.503413912504763</v>
+        <v>3.54709629190574</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3776007555034385</v>
+        <v>0.3898244318092556</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.9783740408300268</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.201061208452484</v>
+        <v>2.20106120845249</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3111572203531887</v>
@@ -949,7 +949,7 @@
         <v>-0.1226856672460031</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1077274176732047</v>
+        <v>0.107727417673205</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.537171159873052</v>
+        <v>-5.469009781113734</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.689174109881036</v>
+        <v>-4.477324308492665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.275862474578105</v>
+        <v>-4.331661513735733</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.842380649061608</v>
+        <v>-1.904833537190054</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6018097229075992</v>
+        <v>-0.5970141161986222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4691742625324877</v>
+        <v>-0.4322957337290685</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.430719273808491</v>
+        <v>-0.4403745450074392</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07974416342715487</v>
+        <v>-0.08416633883951997</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4973873176194367</v>
+        <v>0.7332040983009356</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.049350236981093</v>
+        <v>2.020341210437974</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.104463585838137</v>
+        <v>2.190755470456381</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.138791318410619</v>
+        <v>6.144266074032422</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08599427356253195</v>
+        <v>0.1276135792205831</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3291795964005546</v>
+        <v>0.3077054274975043</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3215559996765511</v>
+        <v>0.3277871877739154</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3445047532505182</v>
+        <v>0.3372847553207811</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-1.942703124261946</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7331858761216781</v>
+        <v>0.7331858761216892</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.04547343020937282</v>
@@ -1049,7 +1049,7 @@
         <v>-0.102303090727263</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.02004577706934229</v>
+        <v>0.02004577706934259</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.829417315489779</v>
+        <v>-6.135174631511509</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.877636086897296</v>
+        <v>-5.534600957804273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.296180793529186</v>
+        <v>-7.72615340655254</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.240717860034707</v>
+        <v>-3.91206611692874</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3097152359159316</v>
+        <v>-0.2876865799509941</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2580171089431509</v>
+        <v>-0.2479227458221279</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3334027742700129</v>
+        <v>-0.3563256479152792</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1068852366785737</v>
+        <v>-0.1003147294653578</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.121005754114326</v>
+        <v>4.709615765346631</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.793835504449953</v>
+        <v>5.105347527866869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.133209582799532</v>
+        <v>2.840384219067005</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.238113960702403</v>
+        <v>5.311513663854562</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2604060536178596</v>
+        <v>0.3050690231760341</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2897478598410438</v>
+        <v>0.3200381499857645</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2080538765062546</v>
+        <v>0.1791283224265115</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.153409708280671</v>
+        <v>0.1564426272548662</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-3.877128861420709</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.640492017811257</v>
+        <v>1.640492017811246</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1185010231490878</v>
@@ -1149,7 +1149,7 @@
         <v>-0.08288877898382734</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.02272628740090124</v>
+        <v>0.02272628740090109</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.508305455996831</v>
+        <v>-3.379001416982561</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-17.78036559950102</v>
+        <v>-17.04868433392247</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-11.30818333177857</v>
+        <v>-10.59219067259317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.780204669576465</v>
+        <v>-2.818956818963244</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.05802872622053248</v>
+        <v>-0.07336659605267726</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2919243205129991</v>
+        <v>-0.2776637764017428</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.225064091028202</v>
+        <v>-0.2129884515482268</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.03731286777933136</v>
+        <v>-0.03768462629832966</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.02503257544895</v>
+        <v>11.47330936275982</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-1.2245589391858</v>
+        <v>-1.807963940460651</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.4656865017022</v>
+        <v>3.859477643327629</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.746010019521491</v>
+        <v>6.653764134092858</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3510818648225653</v>
+        <v>0.3207892898527948</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.02457636575380362</v>
+        <v>-0.03458286846375932</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07752914196725783</v>
+        <v>0.08557723197123865</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09951411249880457</v>
+        <v>0.09711883992633154</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.97239120209872</v>
+        <v>-14.25648818042605</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.71959211914262</v>
+        <v>-11.46269657441714</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.0048399360014</v>
+        <v>-14.226686197465</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.370024814360915</v>
+        <v>-5.098369778517123</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2064461049053254</v>
+        <v>-0.201906021075474</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1600339915478353</v>
+        <v>-0.1591105510076918</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2009048130101052</v>
+        <v>-0.2044471501681863</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05907144992703289</v>
+        <v>-0.05637479728483021</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.608630289898926</v>
+        <v>2.437965610956842</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.088384190982917</v>
+        <v>4.378113617551758</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9431466702892226</v>
+        <v>0.317806474622788</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.757427733556197</v>
+        <v>2.644531207006271</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.02509072647435859</v>
+        <v>0.03715138963137362</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06361893883819691</v>
+        <v>0.06702273219531066</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01071653828111538</v>
+        <v>0.007419966930012172</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.03245083317146313</v>
+        <v>0.0308082257096058</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>1.548545922044658</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.070686132510366</v>
+        <v>5.070686132510355</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1421508969526766</v>
@@ -1349,7 +1349,7 @@
         <v>0.09836866370166046</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1639779295424839</v>
+        <v>0.1639779295424836</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3711407881959419</v>
+        <v>0.3007184654910354</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.352257439982382</v>
+        <v>-1.454013131550714</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.339361056848153</v>
+        <v>-0.2657529030055137</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.995134033648083</v>
+        <v>2.98380244845058</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02602726350281433</v>
+        <v>0.0206992425209637</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.07451690616898314</v>
+        <v>-0.07773170477975111</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02018695278469205</v>
+        <v>-0.01716788689338213</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09331217708034459</v>
+        <v>0.09195134684883524</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.968739008010021</v>
+        <v>3.783272255908646</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.391254047246718</v>
+        <v>2.593594372549173</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.407370926557471</v>
+        <v>3.317687373124776</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.014872985108305</v>
+        <v>7.213326423910103</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3035113030653304</v>
+        <v>0.2898399819219594</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1397242253348349</v>
+        <v>0.1573644432727679</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.233760660825215</v>
+        <v>0.2190188971939803</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2361074331520234</v>
+        <v>0.2441720898028267</v>
       </c>
     </row>
     <row r="28">
